--- a/planilhaAlunos.xlsx
+++ b/planilhaAlunos.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,64 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
+        <is>
+          <t>Em Recuperação</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Kamila</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Aprovado</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aluno</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Em Recuperação</t>
         </is>
